--- a/results/Homeopathy_excluded/mod3.corrupt_salience.slopes.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod3.corrupt_salience.slopes.eff.MN.xlsx
@@ -419,25 +419,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.100756263386605</v>
+        <v>-0.100756428478622</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0640691331090841</v>
+        <v>0.0640686485697999</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.226329456801113</v>
+        <v>-0.226328672213584</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0248169300279022</v>
+        <v>0.0248158152563392</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.57261786600199</v>
+        <v>-1.5726323362175</v>
       </c>
       <c r="I2" t="n">
-        <v>0.115807328254731</v>
+        <v>0.115803975688047</v>
       </c>
     </row>
     <row r="3">
@@ -448,25 +448,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.548141412147795</v>
+        <v>0.5481368562216</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15575901348857</v>
+        <v>0.155757609699394</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.24285935544271</v>
+        <v>0.242857550892741</v>
       </c>
       <c r="G3" t="n">
-        <v>0.85342346885288</v>
+        <v>0.853416161550459</v>
       </c>
       <c r="H3" t="n">
-        <v>3.51916335286766</v>
+        <v>3.51916581975983</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000432910065264119</v>
+        <v>0.000432906039706827</v>
       </c>
     </row>
     <row r="4">
@@ -477,25 +477,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.268714538901614</v>
+        <v>-0.26871048623226</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0750053698190333</v>
+        <v>0.075004848982914</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.415722362394026</v>
+        <v>-0.415717288904637</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.121706715409201</v>
+        <v>-0.121703683559883</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.58260401288529</v>
+        <v>-3.58257485850644</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000340186094001887</v>
+        <v>0.000340224075361905</v>
       </c>
     </row>
     <row r="5">
@@ -506,25 +506,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.178670609859576</v>
+        <v>-0.178669941510718</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0579454676357806</v>
+        <v>0.0579450210376251</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.292241639493037</v>
+        <v>-0.292240095827879</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0650995802261149</v>
+        <v>-0.0650997871935569</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.08342683473745</v>
+        <v>-3.08343906536341</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00204631421329308</v>
+        <v>0.00204623010310697</v>
       </c>
     </row>
     <row r="6">
@@ -535,25 +535,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0363636125504923</v>
+        <v>-0.0363642060964033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0579520516957217</v>
+        <v>0.0579517029425861</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.14994754670431</v>
+        <v>-0.149947456706636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0772203216033255</v>
+        <v>0.0772190445138292</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.627477569584941</v>
+        <v>-0.627491587821501</v>
       </c>
       <c r="I6" t="n">
-        <v>0.530346234819689</v>
+        <v>0.530337048647848</v>
       </c>
     </row>
     <row r="7">
@@ -564,25 +564,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.179353788678932</v>
+        <v>0.179352524022929</v>
       </c>
       <c r="D7" t="n">
-        <v>0.129467293323115</v>
+        <v>0.129466189366288</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0743974434102571</v>
+        <v>-0.0743965443506374</v>
       </c>
       <c r="G7" t="n">
-        <v>0.433105020768122</v>
+        <v>0.433101592396495</v>
       </c>
       <c r="H7" t="n">
-        <v>1.38532121955553</v>
+        <v>1.38532326394115</v>
       </c>
       <c r="I7" t="n">
-        <v>0.165954268116993</v>
+        <v>0.165953643272765</v>
       </c>
     </row>
     <row r="8">
@@ -593,25 +593,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0666966982277931</v>
+        <v>-0.0666951763701574</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0572139221663474</v>
+        <v>0.0572135380466335</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.178833925088112</v>
+        <v>-0.178831650369671</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0454405286325256</v>
+        <v>0.0454412976293564</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.16574245747171</v>
+        <v>-1.16572368441531</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2437185885494</v>
+        <v>0.243726181076768</v>
       </c>
     </row>
     <row r="9">
@@ -622,25 +622,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0762934779006469</v>
+        <v>-0.0762931415563681</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04761751496363</v>
+        <v>0.0476171665988245</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.169622092262659</v>
+        <v>-0.169621073135908</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0170351364613649</v>
+        <v>0.0170347900231715</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.60221460441435</v>
+        <v>-1.60221926262726</v>
       </c>
       <c r="I9" t="n">
-        <v>0.109108161645365</v>
+        <v>0.10910713192119</v>
       </c>
     </row>
     <row r="10">
@@ -651,25 +651,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0280290382856207</v>
+        <v>0.0280280162858155</v>
       </c>
       <c r="D10" t="n">
-        <v>0.112259244159712</v>
+        <v>0.112258705283457</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.191995037199103</v>
+        <v>-0.191995003020856</v>
       </c>
       <c r="G10" t="n">
-        <v>0.248053113770344</v>
+        <v>0.248051035592487</v>
       </c>
       <c r="H10" t="n">
-        <v>0.249681338008509</v>
+        <v>0.249673432586309</v>
       </c>
       <c r="I10" t="n">
-        <v>0.802833791310634</v>
+        <v>0.802839905352845</v>
       </c>
     </row>
     <row r="11">
@@ -680,25 +680,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.18943383478993</v>
+        <v>-0.189431808175742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.241527699885317</v>
+        <v>0.24152584076239</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.66281942783395</v>
+        <v>-0.662813757405782</v>
       </c>
       <c r="G11" t="n">
-        <v>0.283951758254089</v>
+        <v>0.283950141054298</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.78431515258862</v>
+        <v>-0.784312798902968</v>
       </c>
       <c r="I11" t="n">
-        <v>0.432855210513049</v>
+        <v>0.432856591249343</v>
       </c>
     </row>
     <row r="12">
@@ -709,25 +709,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.135321142446027</v>
+        <v>0.135320133491945</v>
       </c>
       <c r="D12" t="n">
-        <v>0.092464116695171</v>
+        <v>0.0924634959611108</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0459051961388164</v>
+        <v>-0.0459049884764967</v>
       </c>
       <c r="G12" t="n">
-        <v>0.316547481030871</v>
+        <v>0.316545255460387</v>
       </c>
       <c r="H12" t="n">
-        <v>1.46349900137092</v>
+        <v>1.46349791434297</v>
       </c>
       <c r="I12" t="n">
-        <v>0.143330886683018</v>
+        <v>0.143331183910383</v>
       </c>
     </row>
     <row r="13">
@@ -738,25 +738,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0260836540582825</v>
+        <v>0.0260836583979815</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0867411335852512</v>
+        <v>0.0867405381264462</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.143925843746988</v>
+        <v>-0.143924672329476</v>
       </c>
       <c r="G13" t="n">
-        <v>0.196093151863553</v>
+        <v>0.196091989125439</v>
       </c>
       <c r="H13" t="n">
-        <v>0.300706861671883</v>
+        <v>0.300708976003331</v>
       </c>
       <c r="I13" t="n">
-        <v>0.763638035973721</v>
+        <v>0.763636423556096</v>
       </c>
     </row>
   </sheetData>
